--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43303F53-A0BC-7B4F-9DAF-BE9F2ABDF304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C68452-FA80-E34A-B009-816B09D16357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,21 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -892,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -933,9 +937,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -948,12 +949,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1008,6 +1003,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,9 +1024,20 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2289,39 +2298,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>448.37</v>
+    <v>498.24</v>
     <v>245.03</v>
-    <v>1.6128</v>
-    <v>6.78</v>
-    <v>1.6256E-2</v>
-    <v>-0.05</v>
-    <v>-1.18E-4</v>
+    <v>1.5821000000000001</v>
+    <v>-1.38</v>
+    <v>-2.8160000000000004E-3</v>
+    <v>1.26</v>
+    <v>2.5779999999999996E-3</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
-    <v>7433</v>
+    <v>7055</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>424.43</v>
+    <v>498.24</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.978360358597</v>
+    <v>45071.977729154685</v>
     <v>0</v>
-    <v>416.02</v>
-    <v>20934900000</v>
+    <v>488.69499999999999</v>
+    <v>24260413350</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>418.49</v>
+    <v>498.15</v>
     <v>0</v>
-    <v>417.07</v>
-    <v>423.85</v>
-    <v>423.8</v>
-    <v>49392240</v>
+    <v>490.12</v>
+    <v>488.74</v>
+    <v>490</v>
+    <v>49638690</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>506038</v>
-    <v>515360</v>
+    <v>353405</v>
+    <v>635346</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2486,9 +2495,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2909,10 +2918,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2962,19 +2971,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="27">
         <v>2023</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="27">
         <v>2024</v>
       </c>
-      <c r="P1" s="28">
+      <c r="P1" s="27">
         <v>2025</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="27">
         <v>2026</v>
       </c>
-      <c r="R1" s="28">
+      <c r="R1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -3074,19 +3083,19 @@
       <c r="M3" s="1">
         <v>1730969000</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>2057000000</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>2509000000</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>3082000000</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>3713000000</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>4412000000</v>
       </c>
       <c r="S3" s="19" t="s">
@@ -3673,7 +3682,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>-6.0660093641423739E-2</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13" s="66">
         <f>M67/M72</f>
         <v>1.5646809591382591</v>
       </c>
@@ -3812,24 +3821,24 @@
       <c r="M16" s="1">
         <v>1840070000</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="29">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>5.517441772345557E-2</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="65">
         <f>U101/M3</f>
-        <v>12.094324046242306</v>
-      </c>
-      <c r="U16" s="31">
+        <v>14.015510012022167</v>
+      </c>
+      <c r="U16" s="65">
         <f>U101/M28</f>
-        <v>-185.6770348295772</v>
-      </c>
-      <c r="V16" s="32">
+        <v>-215.17187159087885</v>
+      </c>
+      <c r="V16" s="67">
         <f>U101/M106</f>
-        <v>109.37602858889359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+        <v>126.75043416247394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>3762000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3913,8 +3922,11 @@
       <c r="S18" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="T18" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3954,12 +3966,16 @@
       <c r="M19" s="10">
         <v>-42780000</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="30">
         <f>M40-M56-M61</f>
         <v>606345000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="68">
+        <f>U101/N3</f>
+        <v>11.794075522605736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>-27.358595194085026</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4050,7 +4066,7 @@
         <v>-2.47E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4091,7 +4107,7 @@
         <v>-109101000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4132,7 +4148,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4173,7 +4189,7 @@
         <v>4409000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4214,7 +4230,7 @@
         <v>-104692000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4255,7 +4271,7 @@
         <v>-6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4296,7 +4312,7 @@
         <v>8057000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4353,7 @@
         <v>-112749000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4387,7 +4403,7 @@
         <v>0.44852705011755334</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4428,7 +4444,7 @@
         <v>-6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4469,7 +4485,7 @@
         <v>-2.35</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4597,47 +4613,47 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>(C34-B34)/B34</f>
         <v>2.1223065373534068E-2</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <f t="shared" ref="D35:K35" si="5">(D34-C34)/C34</f>
         <v>-2.0782007470396567E-2</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <f t="shared" si="5"/>
         <v>-0.53082011118776118</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <f t="shared" si="5"/>
         <v>1.8733783082511677</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <f t="shared" si="5"/>
         <v>5.9448558184335684E-2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <f t="shared" si="5"/>
         <v>4.6310765122027447E-2</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <f t="shared" si="5"/>
         <v>4.6216091454639258E-2</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="22">
         <f t="shared" si="5"/>
         <v>9.0736847569363344E-2</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="22">
         <f t="shared" si="5"/>
         <v>6.500892325996431E-2</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="22">
         <f>(L34-K34)/K34</f>
         <v>0</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="22">
         <f>(M34-L34)/L34</f>
         <v>7.3910226333310985E-2</v>
       </c>
@@ -6711,10 +6727,10 @@
       <c r="M85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T85" s="24" t="s">
+      <c r="T85" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="U85" s="25">
+      <c r="U85" s="24">
         <f>M17</f>
         <v>3762000</v>
       </c>
@@ -6759,10 +6775,10 @@
       <c r="M86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T86" s="24" t="s">
+      <c r="T86" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="U86" s="25">
+      <c r="U86" s="24">
         <f>M56</f>
         <v>35928000</v>
       </c>
@@ -6807,10 +6823,10 @@
       <c r="M87" s="10">
         <v>273174000</v>
       </c>
-      <c r="T87" s="24" t="s">
+      <c r="T87" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="U87" s="25">
+      <c r="U87" s="24">
         <f>M61</f>
         <v>770411000</v>
       </c>
@@ -6855,10 +6871,10 @@
       <c r="M88" s="1">
         <v>-37426000</v>
       </c>
-      <c r="T88" s="34" t="s">
+      <c r="T88" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="U88" s="35">
+      <c r="U88" s="32">
         <f>U85/(U86+U87)</f>
         <v>4.6655314948179363E-3</v>
       </c>
@@ -6915,10 +6931,10 @@
         <f t="shared" si="7"/>
         <v>2.1621415519284284E-2</v>
       </c>
-      <c r="T89" s="24" t="s">
+      <c r="T89" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="U89" s="25">
+      <c r="U89" s="24">
         <f>M27</f>
         <v>8057000</v>
       </c>
@@ -6963,10 +6979,10 @@
       <c r="M90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T90" s="24" t="s">
+      <c r="T90" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="25">
+      <c r="U90" s="24">
         <f>M25</f>
         <v>-104692000</v>
       </c>
@@ -7011,10 +7027,10 @@
       <c r="M91" s="1">
         <v>-1534241000</v>
       </c>
-      <c r="T91" s="34" t="s">
+      <c r="T91" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="U91" s="35">
+      <c r="U91" s="32">
         <f>U89/U90</f>
         <v>-7.6959079967905852E-2</v>
       </c>
@@ -7059,10 +7075,10 @@
       <c r="M92" s="1">
         <v>1309504000</v>
       </c>
-      <c r="T92" s="36" t="s">
+      <c r="T92" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="U92" s="37">
+      <c r="U92" s="34">
         <f>U88*(1-U91)</f>
         <v>5.024586506220413E-3</v>
       </c>
@@ -7152,10 +7168,10 @@
       <c r="M94" s="10">
         <v>-319658000</v>
       </c>
-      <c r="T94" s="24" t="s">
+      <c r="T94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="U94" s="38">
+      <c r="U94" s="35">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7199,12 +7215,12 @@
       <c r="M95" s="1">
         <v>-1619000</v>
       </c>
-      <c r="T95" s="24" t="s">
+      <c r="T95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="U95" s="64" cm="1">
+      <c r="U95" s="55" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.6128</v>
+        <v>1.5821000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7247,10 +7263,10 @@
       <c r="M96" s="1">
         <v>39931000</v>
       </c>
-      <c r="T96" s="24" t="s">
+      <c r="T96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="U96" s="38">
+      <c r="U96" s="35">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7294,12 +7310,12 @@
       <c r="M97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T97" s="36" t="s">
+      <c r="T97" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="U97" s="37">
+      <c r="U97" s="34">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.11038104000000001</v>
+        <v>0.10905940500000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7387,10 +7403,10 @@
       <c r="M99" s="1">
         <v>-30884000</v>
       </c>
-      <c r="T99" s="24" t="s">
+      <c r="T99" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="U99" s="25">
+      <c r="U99" s="24">
         <f>U86+U87</f>
         <v>806339000</v>
       </c>
@@ -7435,12 +7451,12 @@
       <c r="M100" s="10">
         <v>7428000</v>
       </c>
-      <c r="T100" s="34" t="s">
+      <c r="T100" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="U100" s="35">
+      <c r="U100" s="32">
         <f>U99/U103</f>
-        <v>3.7087996686849353E-2</v>
+        <v>3.2167669299210194E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7483,12 +7499,12 @@
       <c r="M101" s="1">
         <v>-6811000</v>
       </c>
-      <c r="T101" s="24" t="s">
+      <c r="T101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="U101" s="39" cm="1">
+      <c r="U101" s="36" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>20934900000</v>
+        <v>24260413350</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7531,12 +7547,12 @@
       <c r="M102" s="10">
         <v>-45867000</v>
       </c>
-      <c r="T102" s="34" t="s">
+      <c r="T102" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="U102" s="35">
+      <c r="U102" s="32">
         <f>U101/U103</f>
-        <v>0.96291200331315063</v>
+        <v>0.96783233070078978</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7579,12 +7595,12 @@
       <c r="M103" s="1">
         <v>380042000</v>
       </c>
-      <c r="T103" s="36" t="s">
+      <c r="T103" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="U103" s="40">
+      <c r="U103" s="37">
         <f>U99+U101</f>
-        <v>21741239000</v>
+        <v>25066752350</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7681,18 +7697,28 @@
         <f t="shared" si="8"/>
         <v>8.2210524530286211E-2</v>
       </c>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
+      <c r="N105" s="63">
+        <v>286200000</v>
+      </c>
+      <c r="O105" s="63">
+        <v>359500000</v>
+      </c>
+      <c r="P105" s="63">
+        <v>454700000</v>
+      </c>
+      <c r="Q105" s="63">
+        <v>553900000</v>
+      </c>
+      <c r="R105" s="63">
+        <v>778800000</v>
+      </c>
       <c r="S105" s="15"/>
-      <c r="T105" s="26" t="s">
+      <c r="T105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="U105" s="27">
+      <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10647358020188451</v>
+        <v>0.10571284736308874</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7735,33 +7761,33 @@
       <c r="M106" s="1">
         <v>191403000</v>
       </c>
-      <c r="N106" s="63">
+      <c r="N106" s="54">
         <f>M106*(1+$U$106)</f>
         <v>230811411.76838955</v>
       </c>
-      <c r="O106" s="63">
+      <c r="O106" s="54">
         <f t="shared" ref="O106:R106" si="9">N106*(1+$U$106)</f>
         <v>278333713.69579929</v>
       </c>
-      <c r="P106" s="63">
+      <c r="P106" s="54">
         <f t="shared" si="9"/>
         <v>335640493.62270278</v>
       </c>
-      <c r="Q106" s="63">
+      <c r="Q106" s="54">
         <f t="shared" si="9"/>
         <v>404746300.63110387</v>
       </c>
-      <c r="R106" s="63">
+      <c r="R106" s="54">
         <f t="shared" si="9"/>
         <v>488080464.02981198</v>
       </c>
-      <c r="S106" s="41" t="s">
+      <c r="S106" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="42" t="s">
+      <c r="T106" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="43">
+      <c r="U106" s="40">
         <f>(SUM(N4:R4)/5)</f>
         <v>0.20589234112521523</v>
       </c>
@@ -7780,54 +7806,54 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="44">
-        <f>R106*(1+U107)/(U108-U107)</f>
-        <v>6140425821.3632011</v>
-      </c>
-      <c r="S107" s="45" t="s">
+      <c r="N107" s="38"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
+      <c r="Q107" s="38"/>
+      <c r="R107" s="64">
+        <f>R105*(1+U107)/(U108-U107)</f>
+        <v>9890247043.4348907</v>
+      </c>
+      <c r="S107" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="46" t="s">
+      <c r="T107" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="47">
+      <c r="U107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="44">
+      <c r="N108" s="41">
         <f t="shared" ref="N108:P108" si="10">N107+N106</f>
         <v>230811411.76838955</v>
       </c>
-      <c r="O108" s="44">
+      <c r="O108" s="41">
         <f t="shared" si="10"/>
         <v>278333713.69579929</v>
       </c>
-      <c r="P108" s="44">
+      <c r="P108" s="41">
         <f t="shared" si="10"/>
         <v>335640493.62270278</v>
       </c>
-      <c r="Q108" s="44">
+      <c r="Q108" s="41">
         <f>Q107+Q106</f>
         <v>404746300.63110387</v>
       </c>
-      <c r="R108" s="44">
-        <f>R107+R106</f>
-        <v>6628506285.393013</v>
-      </c>
-      <c r="S108" s="45" t="s">
+      <c r="R108" s="64">
+        <f>R107+R105</f>
+        <v>10669047043.434891</v>
+      </c>
+      <c r="S108" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="T108" s="48" t="s">
+      <c r="T108" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="49">
+      <c r="U108" s="46">
         <f>U105</f>
-        <v>0.10647358020188451</v>
+        <v>0.10571284736308874</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7837,82 +7863,82 @@
       <c r="O109" s="58"/>
     </row>
     <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="50" t="s">
+      <c r="N110" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="O110" s="39">
+      <c r="O110" s="36">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>4950532323.7671452</v>
+        <v>7410724388.2947617</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="50" t="s">
+      <c r="N111" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="O111" s="39">
+      <c r="O111" s="36">
         <f>M40</f>
         <v>1412684000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="50" t="s">
+      <c r="N112" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="O112" s="39">
+      <c r="O112" s="36">
         <f>U99</f>
         <v>806339000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="50" t="s">
+      <c r="N113" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="O113" s="39">
+      <c r="O113" s="36">
         <f>O110+O111-O112</f>
-        <v>5556877323.7671452</v>
+        <v>8017069388.2947617</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="50" t="s">
+      <c r="N114" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="O114" s="51">
+      <c r="O114" s="48">
         <f>M34*(1+(5*S16))</f>
         <v>61324791.93938946</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="52" t="s">
+      <c r="N115" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="O115" s="53">
+      <c r="O115" s="50">
         <f>O113/O114</f>
-        <v>90.613879770832341</v>
+        <v>130.73129373546763</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="50" t="s">
+      <c r="N116" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="O116" s="65" cm="1">
+      <c r="O116" s="56" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>423.85</v>
+        <v>488.74</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="54" t="s">
+      <c r="N117" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="O117" s="55">
+      <c r="O117" s="52">
         <f>O115/O116-1</f>
-        <v>-0.78621238699815421</v>
+        <v>-0.73251361923421943</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="54" t="s">
+      <c r="N118" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="O118" s="56" t="str">
+      <c r="O118" s="53" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C68452-FA80-E34A-B009-816B09D16357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C633A1B2-CAF4-FE4F-B742-14D6171D306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1006,6 +1006,20 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,20 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2298,13 +2298,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>498.24</v>
+    <v>505.45</v>
     <v>245.03</v>
-    <v>1.5821000000000001</v>
-    <v>-1.38</v>
-    <v>-2.8160000000000004E-3</v>
-    <v>1.26</v>
-    <v>2.5779999999999996E-3</v>
+    <v>1.6031</v>
+    <v>7.47</v>
+    <v>1.5283999999999999E-2</v>
+    <v>0.05</v>
+    <v>1.0080000000000001E-4</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
     <v>7055</v>
@@ -2312,25 +2312,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>498.24</v>
+    <v>505.45</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.977729154685</v>
+    <v>45072.958333378905</v>
     <v>0</v>
-    <v>488.69499999999999</v>
-    <v>24260413350</v>
+    <v>490.42</v>
+    <v>24631210000</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>498.15</v>
+    <v>490.42</v>
     <v>0</v>
-    <v>490.12</v>
     <v>488.74</v>
-    <v>490</v>
+    <v>496.21</v>
+    <v>496.26</v>
     <v>49638690</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>353405</v>
-    <v>635346</v>
+    <v>467760</v>
+    <v>638045</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2495,9 +2495,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2918,10 +2918,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3682,7 +3682,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>-6.0660093641423739E-2</v>
       </c>
-      <c r="V13" s="66">
+      <c r="V13" s="60">
         <f>M67/M72</f>
         <v>1.5646809591382591</v>
       </c>
@@ -3825,17 +3825,17 @@
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>5.517441772345557E-2</v>
       </c>
-      <c r="T16" s="65">
+      <c r="T16" s="59">
         <f>U101/M3</f>
-        <v>14.015510012022167</v>
-      </c>
-      <c r="U16" s="65">
+        <v>14.229723351486943</v>
+      </c>
+      <c r="U16" s="59">
         <f>U101/M28</f>
-        <v>-215.17187159087885</v>
-      </c>
-      <c r="V16" s="67">
+        <v>-218.46056284312942</v>
+      </c>
+      <c r="V16" s="61">
         <f>U101/M106</f>
-        <v>126.75043416247394</v>
+        <v>128.68769037057936</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3970,9 +3970,9 @@
         <f>M40-M56-M61</f>
         <v>606345000</v>
       </c>
-      <c r="T19" s="68">
+      <c r="T19" s="62">
         <f>U101/N3</f>
-        <v>11.794075522605736</v>
+        <v>11.974336412250851</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6637,10 +6637,10 @@
       <c r="M83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T83" s="59" t="s">
+      <c r="T83" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="60"/>
+      <c r="U83" s="66"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6682,10 +6682,10 @@
       <c r="M84" s="1">
         <v>18277000</v>
       </c>
-      <c r="T84" s="61" t="s">
+      <c r="T84" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="62"/>
+      <c r="U84" s="68"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7123,10 +7123,10 @@
       <c r="M93" s="1">
         <v>-57495000</v>
       </c>
-      <c r="T93" s="61" t="s">
+      <c r="T93" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="62"/>
+      <c r="U93" s="68"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="U95" s="55" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.5821000000000001</v>
+        <v>1.6031</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="U97" s="34">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.10905940500000001</v>
+        <v>0.109963455</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7358,10 +7358,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="61" t="s">
+      <c r="T98" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="62"/>
+      <c r="U98" s="68"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="U100" s="32">
         <f>U99/U103</f>
-        <v>3.2167669299210194E-2</v>
+        <v>3.1698769405810283E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="U101" s="36" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>24260413350</v>
+        <v>24631210000</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="U102" s="32">
         <f>U101/U103</f>
-        <v>0.96783233070078978</v>
+        <v>0.96830123059418971</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="U103" s="37">
         <f>U99+U101</f>
-        <v>25066752350</v>
+        <v>25437549000</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7643,10 +7643,10 @@
       <c r="M104" s="11">
         <v>334175000</v>
       </c>
-      <c r="T104" s="61" t="s">
+      <c r="T104" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="62"/>
+      <c r="U104" s="68"/>
     </row>
     <row r="105" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7697,19 +7697,19 @@
         <f t="shared" si="8"/>
         <v>8.2210524530286211E-2</v>
       </c>
-      <c r="N105" s="63">
+      <c r="N105" s="57">
         <v>286200000</v>
       </c>
-      <c r="O105" s="63">
+      <c r="O105" s="57">
         <v>359500000</v>
       </c>
-      <c r="P105" s="63">
+      <c r="P105" s="57">
         <v>454700000</v>
       </c>
-      <c r="Q105" s="63">
+      <c r="Q105" s="57">
         <v>553900000</v>
       </c>
-      <c r="R105" s="63">
+      <c r="R105" s="57">
         <v>778800000</v>
       </c>
       <c r="S105" s="15"/>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10571284736308874</v>
+        <v>0.10663702200590904</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7810,9 +7810,9 @@
       <c r="O107" s="38"/>
       <c r="P107" s="38"/>
       <c r="Q107" s="38"/>
-      <c r="R107" s="64">
+      <c r="R107" s="58">
         <f>R105*(1+U107)/(U108-U107)</f>
-        <v>9890247043.4348907</v>
+        <v>9778284170.4125328</v>
       </c>
       <c r="S107" s="42" t="s">
         <v>148</v>
@@ -7841,9 +7841,9 @@
         <f>Q107+Q106</f>
         <v>404746300.63110387</v>
       </c>
-      <c r="R108" s="64">
+      <c r="R108" s="58">
         <f>R107+R105</f>
-        <v>10669047043.434891</v>
+        <v>10557084170.412533</v>
       </c>
       <c r="S108" s="42" t="s">
         <v>144</v>
@@ -7853,14 +7853,14 @@
       </c>
       <c r="U108" s="46">
         <f>U105</f>
-        <v>0.10571284736308874</v>
+        <v>0.10663702200590904</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="57" t="s">
+      <c r="N109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="58"/>
+      <c r="O109" s="64"/>
     </row>
     <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="47" t="s">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="O110" s="36">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>7410724388.2947617</v>
+        <v>7314275190.0573759</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="O113" s="36">
         <f>O110+O111-O112</f>
-        <v>8017069388.2947617</v>
+        <v>7920620190.0573769</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="O115" s="50">
         <f>O113/O114</f>
-        <v>130.73129373546763</v>
+        <v>129.15853343433673</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="O116" s="56" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>488.74</v>
+        <v>496.21</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="O117" s="52">
         <f>O115/O116-1</f>
-        <v>-0.73251361923421943</v>
+        <v>-0.73970993443433875</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C633A1B2-CAF4-FE4F-B742-14D6171D306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5C4480-EA57-5C46-9FE7-DBE237E12FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2298,13 +2298,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>505.45</v>
+    <v>535.12</v>
     <v>245.03</v>
-    <v>1.6031</v>
-    <v>7.47</v>
-    <v>1.5283999999999999E-2</v>
-    <v>0.05</v>
-    <v>1.0080000000000001E-4</v>
+    <v>1.5739000000000001</v>
+    <v>10.63</v>
+    <v>2.0937000000000001E-2</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
     <v>7055</v>
@@ -2312,25 +2310,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>505.45</v>
+    <v>519.17999999999995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.958333378905</v>
+    <v>45099.994610173439</v>
     <v>0</v>
-    <v>490.42</v>
-    <v>24631210000</v>
+    <v>500.005</v>
+    <v>25730214961</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>490.42</v>
+    <v>501.32</v>
     <v>0</v>
-    <v>488.74</v>
-    <v>496.21</v>
-    <v>496.26</v>
+    <v>507.72</v>
+    <v>518.35</v>
     <v>49638690</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>467760</v>
-    <v>638045</v>
+    <v>95</v>
+    <v>601785</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2362,8 +2359,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2384,7 +2379,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2401,7 +2395,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2412,16 +2406,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2487,19 +2478,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2544,9 +2529,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2554,9 +2536,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2921,7 +2900,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L116" sqref="L116"/>
+      <selection pane="bottomRight" activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3827,15 +3806,15 @@
       </c>
       <c r="T16" s="59">
         <f>U101/M3</f>
-        <v>14.229723351486943</v>
+        <v>14.864630713201681</v>
       </c>
       <c r="U16" s="59">
         <f>U101/M28</f>
-        <v>-218.46056284312942</v>
+        <v>-228.20792167558028</v>
       </c>
       <c r="V16" s="61">
         <f>U101/M106</f>
-        <v>128.68769037057936</v>
+        <v>134.42952806904802</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3972,7 +3951,7 @@
       </c>
       <c r="T19" s="62">
         <f>U101/N3</f>
-        <v>11.974336412250851</v>
+        <v>12.508612037433155</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7220,7 +7199,7 @@
       </c>
       <c r="U95" s="55" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.6031</v>
+        <v>1.5739000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7315,7 +7294,7 @@
       </c>
       <c r="U97" s="34">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.109963455</v>
+        <v>0.10870639500000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7456,7 +7435,7 @@
       </c>
       <c r="U100" s="32">
         <f>U99/U103</f>
-        <v>3.1698769405810283E-2</v>
+        <v>3.0385972541312371E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7504,7 +7483,7 @@
       </c>
       <c r="U101" s="36" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>24631210000</v>
+        <v>25730214961</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7552,7 +7531,7 @@
       </c>
       <c r="U102" s="32">
         <f>U101/U103</f>
-        <v>0.96830123059418971</v>
+        <v>0.96961402745868763</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7600,7 +7579,7 @@
       </c>
       <c r="U103" s="37">
         <f>U99+U101</f>
-        <v>25437549000</v>
+        <v>26536553961</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7718,7 +7697,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10663702200590904</v>
+        <v>0.10555592241407442</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7812,7 +7791,7 @@
       <c r="Q107" s="38"/>
       <c r="R107" s="58">
         <f>R105*(1+U107)/(U108-U107)</f>
-        <v>9778284170.4125328</v>
+        <v>9909513491.717268</v>
       </c>
       <c r="S107" s="42" t="s">
         <v>148</v>
@@ -7843,7 +7822,7 @@
       </c>
       <c r="R108" s="58">
         <f>R107+R105</f>
-        <v>10557084170.412533</v>
+        <v>10688313491.717268</v>
       </c>
       <c r="S108" s="42" t="s">
         <v>144</v>
@@ -7853,7 +7832,7 @@
       </c>
       <c r="U108" s="46">
         <f>U105</f>
-        <v>0.10663702200590904</v>
+        <v>0.10555592241407442</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7868,7 +7847,7 @@
       </c>
       <c r="O110" s="36">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>7314275190.0573759</v>
+        <v>7427326189.9214029</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7895,7 +7874,7 @@
       </c>
       <c r="O113" s="36">
         <f>O110+O111-O112</f>
-        <v>7920620190.0573769</v>
+        <v>8033671189.921402</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7913,7 +7892,7 @@
       </c>
       <c r="O115" s="50">
         <f>O113/O114</f>
-        <v>129.15853343433673</v>
+        <v>131.00201298459365</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7922,7 +7901,7 @@
       </c>
       <c r="O116" s="56" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>496.21</v>
+        <v>518.35</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7931,7 +7910,7 @@
       </c>
       <c r="O117" s="52">
         <f>O115/O116-1</f>
-        <v>-0.73970993443433875</v>
+        <v>-0.74727112378780047</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5C4480-EA57-5C46-9FE7-DBE237E12FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB778015-6C7C-3142-982D-6C366D38F19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2300,9 +2300,9 @@
     <v>Powered by Refinitiv</v>
     <v>535.12</v>
     <v>245.03</v>
-    <v>1.5739000000000001</v>
-    <v>10.63</v>
-    <v>2.0937000000000001E-2</v>
+    <v>1.5775999999999999</v>
+    <v>-8.27</v>
+    <v>-1.5762000000000002E-2</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
     <v>7055</v>
@@ -2310,24 +2310,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>519.17999999999995</v>
+    <v>528.65</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.994610173439</v>
+    <v>45106.996408807812</v>
     <v>0</v>
-    <v>500.005</v>
-    <v>25730214961</v>
+    <v>511.41</v>
+    <v>25633915902</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>501.32</v>
+    <v>522.6</v>
     <v>0</v>
-    <v>507.72</v>
-    <v>518.35</v>
+    <v>524.67999999999995</v>
+    <v>516.41</v>
     <v>49638690</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>95</v>
-    <v>601785</v>
+    <v>353970</v>
+    <v>545763</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2900,7 +2900,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L118" sqref="L118"/>
+      <selection pane="bottomRight" activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3806,15 +3806,15 @@
       </c>
       <c r="T16" s="59">
         <f>U101/M3</f>
-        <v>14.864630713201681</v>
+        <v>14.8089976781791</v>
       </c>
       <c r="U16" s="59">
         <f>U101/M28</f>
-        <v>-228.20792167558028</v>
+        <v>-227.3538204507357</v>
       </c>
       <c r="V16" s="61">
         <f>U101/M106</f>
-        <v>134.42952806904802</v>
+        <v>133.92640607513988</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="T19" s="62">
         <f>U101/N3</f>
-        <v>12.508612037433155</v>
+        <v>12.461796743801653</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="U95" s="55" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.5739000000000001</v>
+        <v>1.5775999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="U97" s="34">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.10870639500000001</v>
+        <v>0.10886568000000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="U100" s="32">
         <f>U99/U103</f>
-        <v>3.0385972541312371E-2</v>
+        <v>3.0496642448746086E-2</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="U101" s="36" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>25730214961</v>
+        <v>25633915902</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="U102" s="32">
         <f>U101/U103</f>
-        <v>0.96961402745868763</v>
+        <v>0.96950335755125394</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="U103" s="37">
         <f>U99+U101</f>
-        <v>26536553961</v>
+        <v>26440254902</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="U105" s="26">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10555592241407442</v>
+        <v>0.10569887530023341</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7791,7 +7791,7 @@
       <c r="Q107" s="38"/>
       <c r="R107" s="58">
         <f>R105*(1+U107)/(U108-U107)</f>
-        <v>9909513491.717268</v>
+        <v>9891959423.5991936</v>
       </c>
       <c r="S107" s="42" t="s">
         <v>148</v>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="R108" s="58">
         <f>R107+R105</f>
-        <v>10688313491.717268</v>
+        <v>10670759423.599194</v>
       </c>
       <c r="S108" s="42" t="s">
         <v>144</v>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="U108" s="46">
         <f>U105</f>
-        <v>0.10555592241407442</v>
+        <v>0.10569887530023341</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="O110" s="36">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>7427326189.9214029</v>
+        <v>7412199879.645957</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="O113" s="36">
         <f>O110+O111-O112</f>
-        <v>8033671189.921402</v>
+        <v>8018544879.6459579</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="O115" s="50">
         <f>O113/O114</f>
-        <v>131.00201298459365</v>
+        <v>130.75535401035052</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="O116" s="56" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>518.35</v>
+        <v>516.41</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="O117" s="52">
         <f>O115/O116-1</f>
-        <v>-0.74727112378780047</v>
+        <v>-0.74679933771547702</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB778015-6C7C-3142-982D-6C366D38F19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4A74E-B17A-D44C-853A-CEFBF0C9D9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -553,18 +547,46 @@
   </si>
   <si>
     <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -864,19 +886,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -891,12 +900,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,14 +956,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -954,37 +964,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1004,7 +987,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1020,24 +1002,66 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1112,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>HUBS</a:t>
+              <a:t>Hubspot</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1127,10 +1151,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0428457978726895E-2"/>
-          <c:y val="0.10733813689728632"/>
-          <c:w val="0.85663522826232263"/>
-          <c:h val="0.75576423388012803"/>
+          <c:x val="9.2844884488448839E-2"/>
+          <c:y val="0.15780726877299187"/>
+          <c:w val="0.83190759075907583"/>
+          <c:h val="0.65693384842867519"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1184,6 +1208,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$M$3</c:f>
@@ -1231,7 +1300,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D8D-7D46-A56F-4934FA59D6DB}"/>
+              <c16:uniqueId val="{00000000-D464-C14D-B843-5EACE6924D25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1240,11 +1309,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1282,54 +1351,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$M$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-22490000</c:v>
+                  <c:v>-24411000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15979000</c:v>
+                  <c:v>-18778000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29782000</c:v>
+                  <c:v>-34274000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-42285000</c:v>
+                  <c:v>-48229000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-38113000</c:v>
+                  <c:v>-46053000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-33587000</c:v>
+                  <c:v>-45562000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21072000</c:v>
+                  <c:v>-39714000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17146000</c:v>
+                  <c:v>-63828000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>838000</c:v>
+                  <c:v>-53746000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6706000</c:v>
+                  <c:v>-85031000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1623000</c:v>
+                  <c:v>-77837000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-42780000</c:v>
+                  <c:v>-112749000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D8D-7D46-A56F-4934FA59D6DB}"/>
+              <c16:uniqueId val="{00000001-D464-C14D-B843-5EACE6924D25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1338,11 +1452,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1380,9 +1494,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$M$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1427,7 +1586,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8D8D-7D46-A56F-4934FA59D6DB}"/>
+              <c16:uniqueId val="{00000002-D464-C14D-B843-5EACE6924D25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1441,11 +1600,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1860983567"/>
-        <c:axId val="1860985295"/>
+        <c:axId val="658664303"/>
+        <c:axId val="658666031"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1860983567"/>
+        <c:axId val="658664303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1632,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1485,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860985295"/>
+        <c:crossAx val="658666031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,9 +1652,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860985295"/>
+        <c:axId val="658666031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-100000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1541,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860983567"/>
+        <c:crossAx val="658664303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1559,10 +1719,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34834772530679875"/>
-          <c:y val="0.91834838554815934"/>
-          <c:w val="0.30330444518106042"/>
-          <c:h val="4.4634739111612136E-2"/>
+          <c:x val="0.3460089914503261"/>
+          <c:y val="0.8895605977270401"/>
+          <c:w val="0.31326254515215302"/>
+          <c:h val="6.5621469453478326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2142,22 +2302,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>1588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12F9A0D-E50D-F0C5-180F-3EBFB42C7640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A349B84A-FCFB-539A-3F60-EDB52D38A51C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,6 +2336,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2897,10 +3111,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O97" sqref="O97"/>
+      <selection pane="bottomRight" activeCell="O130" sqref="O130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,19 +3164,19 @@
       <c r="M1" s="8">
         <v>2022</v>
       </c>
-      <c r="N1" s="27">
+      <c r="N1" s="23">
         <v>2023</v>
       </c>
-      <c r="O1" s="27">
+      <c r="O1" s="23">
         <v>2024</v>
       </c>
-      <c r="P1" s="27">
+      <c r="P1" s="23">
         <v>2025</v>
       </c>
-      <c r="Q1" s="27">
+      <c r="Q1" s="23">
         <v>2026</v>
       </c>
-      <c r="R1" s="27">
+      <c r="R1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -2971,49 +3185,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -3062,102 +3276,102 @@
       <c r="M3" s="1">
         <v>1730969000</v>
       </c>
-      <c r="N3" s="28">
-        <v>2057000000</v>
-      </c>
-      <c r="O3" s="28">
-        <v>2509000000</v>
-      </c>
-      <c r="P3" s="28">
-        <v>3082000000</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>3713000000</v>
-      </c>
-      <c r="R3" s="28">
-        <v>4412000000</v>
+      <c r="N3" s="24">
+        <v>2087000000</v>
+      </c>
+      <c r="O3" s="24">
+        <v>2540000000</v>
+      </c>
+      <c r="P3" s="24">
+        <v>3146000000</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>3709000000</v>
+      </c>
+      <c r="R3" s="24">
+        <v>4407000000</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="U3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="73">
         <f>(C3/B3)-1</f>
         <v>0.80730571218435898</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="73">
         <f>(D3/C3)-1</f>
         <v>0.5044182621502209</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="73">
         <f>(E3/D3)-1</f>
         <v>0.49259345132287402</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="73">
         <f t="shared" ref="F4:R4" si="0">(F3/E3)-1</f>
         <v>0.5701525768925404</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="73">
         <f t="shared" si="0"/>
         <v>0.48929609822856612</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="73">
         <f t="shared" si="0"/>
         <v>0.38619093837995022</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="73">
         <f t="shared" si="0"/>
         <v>0.36571781519227287</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="73">
         <f t="shared" si="0"/>
         <v>0.31556785839603885</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="73">
         <f t="shared" si="0"/>
         <v>0.30845805055863429</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="73">
         <f t="shared" si="0"/>
         <v>0.47295549621415445</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="73">
         <f t="shared" si="0"/>
         <v>0.33084100509126912</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18835172669181244</v>
+        <v>0.20568305960418698</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21973748176956742</v>
+        <v>0.21705797795879245</v>
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.22837783977680348</v>
+        <v>0.23858267716535431</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20473718364698246</v>
+        <v>0.17895740623013356</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1882574737409104</v>
+        <v>0.18819088703154496</v>
       </c>
       <c r="S4" s="17">
         <f>(M4+L4+K4)/3</f>
@@ -3172,7 +3386,7 @@
         <v>0.31533748055902994</v>
       </c>
       <c r="V4" s="17">
-        <f>(M105+L105+K105)/3</f>
+        <f>(M106+L106+K106)/3</f>
         <v>1.4770154587927495</v>
       </c>
       <c r="AB4" s="16"/>
@@ -3267,16 +3481,16 @@
         <v>1416710000</v>
       </c>
       <c r="S6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="V6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3332,7 +3546,7 @@
         <v>-6.5100000000000005E-2</v>
       </c>
       <c r="V7" s="21">
-        <f>M106/M3</f>
+        <f>M107/M3</f>
         <v>0.11057563711424064</v>
       </c>
     </row>
@@ -3379,7 +3593,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3432,16 +3646,16 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="S9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="V9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3583,21 +3797,21 @@
         <v>1083789000</v>
       </c>
       <c r="S12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="U12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3661,7 +3875,7 @@
         <f>M22/(M72+M56+M61)</f>
         <v>-6.0660093641423739E-2</v>
       </c>
-      <c r="V13" s="60">
+      <c r="V13" s="42">
         <f>M67/M72</f>
         <v>1.5646809591382591</v>
       </c>
@@ -3671,40 +3885,40 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3748,16 +3962,16 @@
         <v>1525811000</v>
       </c>
       <c r="S15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3800,24 +4014,24 @@
       <c r="M16" s="1">
         <v>1840070000</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="25">
         <f>(M35+L35+K35+J35+I35)/5</f>
         <v>5.517441772345557E-2</v>
       </c>
-      <c r="T16" s="59">
+      <c r="T16" s="41">
         <f>U101/M3</f>
         <v>14.8089976781791</v>
       </c>
-      <c r="U16" s="59">
+      <c r="U16" s="41">
         <f>U101/M28</f>
         <v>-227.3538204507357</v>
       </c>
-      <c r="V16" s="61">
-        <f>U101/M106</f>
+      <c r="V16" s="43">
+        <f>U101/M107</f>
         <v>133.92640607513988</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3858,7 +4072,7 @@
         <v>3762000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3899,13 +4113,19 @@
         <v>58150000</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T18" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3945,18 +4165,41 @@
       <c r="M19" s="10">
         <v>-42780000</v>
       </c>
-      <c r="S19" s="30">
+      <c r="N19" s="49">
+        <v>346500000</v>
+      </c>
+      <c r="O19" s="49">
+        <v>449200000</v>
+      </c>
+      <c r="P19" s="49">
+        <v>588000000</v>
+      </c>
+      <c r="Q19" s="49">
+        <v>808000000</v>
+      </c>
+      <c r="R19" s="49">
+        <v>1092000000</v>
+      </c>
+      <c r="S19" s="26">
         <f>M40-M56-M61</f>
         <v>606345000</v>
       </c>
-      <c r="T19" s="62">
+      <c r="T19" s="44">
         <f>U101/N3</f>
-        <v>12.461796743801653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12.282662147580259</v>
+      </c>
+      <c r="U19" s="41">
+        <f>U101/N28</f>
+        <v>101.31982569960475</v>
+      </c>
+      <c r="V19" s="43">
+        <f>U101/N106</f>
+        <v>46.438253445652173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3972,7 +4215,7 @@
         <v>0.41981733933248266</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:M20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:R20" si="3">(F19/E19)-1</f>
         <v>-9.8663828780891527E-2</v>
       </c>
       <c r="G20" s="15">
@@ -4003,8 +4246,28 @@
         <f t="shared" si="3"/>
         <v>-27.358595194085026</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="N20" s="16">
+        <f t="shared" si="3"/>
+        <v>-9.0995792426367466</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.29639249639249643</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.30899376669634915</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.37414965986394555</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.35148514851485158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4044,8 +4307,34 @@
       <c r="M21" s="2">
         <v>-2.47E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="N21" s="50">
+        <f>N19/N3</f>
+        <v>0.16602779108768567</v>
+      </c>
+      <c r="O21" s="50">
+        <f t="shared" ref="O21:R21" si="4">O19/O3</f>
+        <v>0.17685039370078739</v>
+      </c>
+      <c r="P21" s="50">
+        <f t="shared" si="4"/>
+        <v>0.18690400508582328</v>
+      </c>
+      <c r="Q21" s="50">
+        <f t="shared" si="4"/>
+        <v>0.21784847667834997</v>
+      </c>
+      <c r="R21" s="50">
+        <f t="shared" si="4"/>
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4085,8 +4374,16 @@
       <c r="M22" s="10">
         <v>-109101000</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="U22" s="47">
+        <f>(-1*M98)/U101</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="48">
+        <f>M107/U101</f>
+        <v>7.4667873894782664E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4424,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4168,7 +4465,7 @@
         <v>4409000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4209,7 +4506,7 @@
         <v>-104692000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4250,18 +4547,18 @@
         <v>-6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>-92000</v>
@@ -4291,7 +4588,7 @@
         <v>8057000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4331,10 +4628,25 @@
       <c r="M28" s="11">
         <v>-112749000</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="51">
+        <v>253000000</v>
+      </c>
+      <c r="O28" s="51">
+        <v>328400000</v>
+      </c>
+      <c r="P28" s="51">
+        <v>463000000</v>
+      </c>
+      <c r="Q28" s="51">
+        <v>761000000</v>
+      </c>
+      <c r="R28" s="51">
+        <v>1053000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4350,39 +4662,59 @@
         <v>0.40715994631499086</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:M29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:R29" si="5">(F28/E28)-1</f>
         <v>-4.5118082481494515E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0661628992682304E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12835257451384929</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60719141864329962</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.15795575609450396</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5820898299408328</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.4604438381296276E-2</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44852705011755334</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="N29" s="16">
+        <f t="shared" si="5"/>
+        <v>-3.2439223407746409</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.29802371541501982</v>
+      </c>
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.40986601705237513</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.64362850971922247</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.38370565045992122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4422,8 +4754,28 @@
       <c r="M30" s="2">
         <v>-6.5100000000000005E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="N30" s="52">
+        <f>N28/N3</f>
+        <v>0.12122664111164351</v>
+      </c>
+      <c r="O30" s="52">
+        <f t="shared" ref="O30:R30" si="6">O28/O3</f>
+        <v>0.12929133858267716</v>
+      </c>
+      <c r="P30" s="52">
+        <f t="shared" si="6"/>
+        <v>0.14717101080737444</v>
+      </c>
+      <c r="Q30" s="52">
+        <f t="shared" si="6"/>
+        <v>0.20517659746562417</v>
+      </c>
+      <c r="R30" s="52">
+        <f t="shared" si="6"/>
+        <v>0.23893805309734514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4463,8 +4815,23 @@
       <c r="M31" s="12">
         <v>-2.35</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="N31" s="53">
+        <v>5.09</v>
+      </c>
+      <c r="O31" s="53">
+        <v>6.62</v>
+      </c>
+      <c r="P31" s="53">
+        <v>9.33</v>
+      </c>
+      <c r="Q31" s="53">
+        <v>15.33</v>
+      </c>
+      <c r="R31" s="53">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4589,7 +4956,7 @@
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4597,35 +4964,35 @@
         <v>2.1223065373534068E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:K35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:K35" si="7">(D34-C34)/C34</f>
         <v>-2.0782007470396567E-2</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.53082011118776118</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8733783082511677</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.9448558184335684E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6310765122027447E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6216091454639258E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.0736847569363344E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.500892325996431E-2</v>
       </c>
       <c r="L35" s="22">
@@ -4642,40 +5009,40 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -4683,40 +5050,40 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4724,7 +5091,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>41097000</v>
@@ -4765,16 +5132,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>48972000</v>
@@ -4806,7 +5173,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>41097000</v>
@@ -4847,7 +5214,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>5231000</v>
@@ -4888,40 +5255,40 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4929,7 +5296,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>4195000</v>
@@ -4970,7 +5337,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>50523000</v>
@@ -5011,7 +5378,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>2562000</v>
@@ -5052,7 +5419,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>9330000</v>
@@ -5093,7 +5460,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>2708000</v>
@@ -5134,7 +5501,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>12038000</v>
@@ -5175,16 +5542,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>40566000</v>
@@ -5216,40 +5583,40 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5257,7 +5624,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>528000</v>
@@ -5298,7 +5665,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>15128000</v>
@@ -5339,40 +5706,40 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5380,7 +5747,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>65651000</v>
@@ -5421,7 +5788,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>2200000</v>
@@ -5462,7 +5829,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>107000</v>
@@ -5480,10 +5847,10 @@
         <v>796000</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>23613000</v>
@@ -5503,40 +5870,40 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5544,7 +5911,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>15716000</v>
@@ -5585,7 +5952,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>8282000</v>
@@ -5626,7 +5993,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>26305000</v>
@@ -5667,22 +6034,22 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>298447000</v>
@@ -5708,7 +6075,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>301000</v>
@@ -5749,40 +6116,40 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5790,7 +6157,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>102254000</v>
@@ -5831,7 +6198,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>102555000</v>
@@ -5872,40 +6239,40 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5913,7 +6280,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>128860000</v>
@@ -5954,7 +6321,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>5000</v>
@@ -5995,7 +6362,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-71798000</v>
@@ -6036,7 +6403,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-10000</v>
@@ -6077,7 +6444,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>8594000</v>
@@ -6118,7 +6485,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-63209000</v>
@@ -6159,7 +6526,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>65651000</v>
@@ -6200,40 +6567,40 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -6241,40 +6608,40 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -6364,13 +6731,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-133000</v>
@@ -6443,54 +6810,54 @@
     </row>
     <row r="80" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:M80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:M80" si="8">B79/B3</f>
         <v>0.16176934122509018</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8736532051778934E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4619625421851251E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14116814525872484</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11711360151256163</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12058663970151347</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12597307860238757</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14866271589535654</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14485078386628339</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.13758145286775247</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.12821279690741147</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.15936102841818658</v>
       </c>
     </row>
@@ -6581,45 +6948,45 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T83" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="U83" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="T83" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="U83" s="56"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6661,10 +7028,10 @@
       <c r="M84" s="1">
         <v>18277000</v>
       </c>
-      <c r="T84" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="U84" s="68"/>
+      <c r="T84" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="U84" s="57"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6704,12 +7071,12 @@
         <v>95156000</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="U85" s="24">
+        <v>91</v>
+      </c>
+      <c r="T85" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="U85" s="59">
         <f>M17</f>
         <v>3762000</v>
       </c>
@@ -6752,12 +7119,12 @@
         <v>-1999000</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="U86" s="24">
+        <v>91</v>
+      </c>
+      <c r="T86" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="U86" s="59">
         <f>M56</f>
         <v>35928000</v>
       </c>
@@ -6802,10 +7169,10 @@
       <c r="M87" s="10">
         <v>273174000</v>
       </c>
-      <c r="T87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="U87" s="24">
+      <c r="T87" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="U87" s="59">
         <f>M61</f>
         <v>770411000</v>
       </c>
@@ -6850,70 +7217,70 @@
       <c r="M88" s="1">
         <v>-37426000</v>
       </c>
-      <c r="T88" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="U88" s="32">
+      <c r="T88" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="U88" s="61">
         <f>U85/(U86+U87)</f>
         <v>4.6655314948179363E-3</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:M89" si="9">(-1*B88)/B3</f>
+        <v>4.1046474976359749E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.2398263700488331E-3</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.6135198495504544E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.2704960474990509E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6316703582990275E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.8269088117741272E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.3981235956252732E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.348122733829779E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.9822778057671222E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2211667606616342E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.2085744292504254E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1621415519284284E-2</v>
+      </c>
+      <c r="T89" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:M89" si="7">(-1*B88)/B3</f>
-        <v>4.1046474976359749E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2398263700488331E-3</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.6135198495504544E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2704960474990509E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.6316703582990275E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.8269088117741272E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.3981235956252732E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.348122733829779E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9822778057671222E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2211667606616342E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2085744292504254E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1621415519284284E-2</v>
-      </c>
-      <c r="T89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="U89" s="24">
+      <c r="U89" s="59">
         <f>M27</f>
         <v>8057000</v>
       </c>
@@ -6926,19 +7293,19 @@
         <v>1022000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-600000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1">
         <v>-12915000</v>
@@ -6956,12 +7323,12 @@
         <v>-19910000</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="T90" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="U90" s="24">
+      <c r="U90" s="59">
         <f>M25</f>
         <v>-104692000</v>
       </c>
@@ -6971,16 +7338,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-113615000</v>
@@ -7006,10 +7373,10 @@
       <c r="M91" s="1">
         <v>-1534241000</v>
       </c>
-      <c r="T91" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="U91" s="32">
+      <c r="T91" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="U91" s="61">
         <f>U89/U90</f>
         <v>-7.6959079967905852E-2</v>
       </c>
@@ -7019,16 +7386,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>23018000</v>
@@ -7054,10 +7421,10 @@
       <c r="M92" s="1">
         <v>1309504000</v>
       </c>
-      <c r="T92" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="U92" s="34">
+      <c r="T92" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="U92" s="61">
         <f>U88*(1-U91)</f>
         <v>5.024586506220413E-3</v>
       </c>
@@ -7102,10 +7469,10 @@
       <c r="M93" s="1">
         <v>-57495000</v>
       </c>
-      <c r="T93" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="U93" s="68"/>
+      <c r="T93" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="U93" s="57"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7147,11 +7514,12 @@
       <c r="M94" s="10">
         <v>-319658000</v>
       </c>
-      <c r="T94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="U94" s="35">
-        <v>4.095E-2</v>
+      <c r="T94" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="U94" s="74">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7194,10 +7562,10 @@
       <c r="M95" s="1">
         <v>-1619000</v>
       </c>
-      <c r="T95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="U95" s="55" cm="1">
+      <c r="T95" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="U95" s="63" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
         <v>1.5775999999999999</v>
       </c>
@@ -7210,10 +7578,10 @@
         <v>21348000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>130764000</v>
@@ -7222,19 +7590,19 @@
         <v>33669000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1">
         <v>342628000</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1">
         <v>46510000</v>
@@ -7242,10 +7610,10 @@
       <c r="M96" s="1">
         <v>39931000</v>
       </c>
-      <c r="T96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="U96" s="35">
+      <c r="T96" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="U96" s="62">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7257,44 +7625,44 @@
         <v>-9000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T97" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="U97" s="34">
+        <v>91</v>
+      </c>
+      <c r="T97" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="U97" s="61">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.10886568000000001</v>
+        <v>0.109922688</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7302,45 +7670,45 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T98" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="U98" s="68"/>
+        <v>91</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="T98" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="U98" s="57"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7382,10 +7750,10 @@
       <c r="M99" s="1">
         <v>-30884000</v>
       </c>
-      <c r="T99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="U99" s="24">
+      <c r="T99" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="U99" s="59">
         <f>U86+U87</f>
         <v>806339000</v>
       </c>
@@ -7430,10 +7798,10 @@
       <c r="M100" s="10">
         <v>7428000</v>
       </c>
-      <c r="T100" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="U100" s="32">
+      <c r="T100" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="U100" s="61">
         <f>U99/U103</f>
         <v>3.0496642448746086E-2</v>
       </c>
@@ -7443,7 +7811,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1">
         <v>-10000</v>
@@ -7478,10 +7846,10 @@
       <c r="M101" s="1">
         <v>-6811000</v>
       </c>
-      <c r="T101" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="U101" s="36" cm="1">
+      <c r="T101" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="U101" s="64" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
         <v>25633915902</v>
       </c>
@@ -7526,10 +7894,10 @@
       <c r="M102" s="10">
         <v>-45867000</v>
       </c>
-      <c r="T102" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="U102" s="32">
+      <c r="T102" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="U102" s="61">
         <f>U101/U103</f>
         <v>0.96950335755125394</v>
       </c>
@@ -7574,15 +7942,15 @@
       <c r="M103" s="1">
         <v>380042000</v>
       </c>
-      <c r="T103" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="U103" s="37">
+      <c r="T103" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="U103" s="65">
         <f>U99+U101</f>
         <v>26440254902</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -7622,302 +7990,342 @@
       <c r="M104" s="11">
         <v>334175000</v>
       </c>
-      <c r="T104" s="67" t="s">
+      <c r="T104" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="U104" s="57"/>
+    </row>
+    <row r="105" spans="1:21" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:L105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-13765000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-5292000</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-22187000</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-27318200</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-23369200</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-23828600</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-14517800</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-4896400</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>-9674800</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>-5035400</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>82106800</v>
+      </c>
+      <c r="M105" s="1">
+        <f>(M22*(1-0.2))+M77+M88+M81</f>
+        <v>-12510800</v>
+      </c>
+      <c r="N105" s="37">
+        <f>M105*(1+$U$106)</f>
+        <v>-15084201.519512288</v>
+      </c>
+      <c r="O105" s="37">
+        <f t="shared" ref="O105:R105" si="11">N105*(1+$U$106)</f>
+        <v>-18186937.324652046</v>
+      </c>
+      <c r="P105" s="37">
+        <f t="shared" si="11"/>
+        <v>-21927888.514546726</v>
+      </c>
+      <c r="Q105" s="37">
+        <f t="shared" si="11"/>
+        <v>-26438332.420854125</v>
+      </c>
+      <c r="R105" s="37">
+        <f t="shared" si="11"/>
+        <v>-31876549.387410782</v>
+      </c>
+      <c r="S105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="T105" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="U105" s="67">
+        <f>(U100*U92)+(U102*U97)</f>
+        <v>0.10672364810519193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.45466363340916482</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>2.3120381406436232</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-0.1203397149848856</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.46146293568973984</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.83500455788514127</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-11.25184162062615</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>1.3073606682534691</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.26760481139787462</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.53874737052221044</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>4.8875832223701732</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>8.2210524530286211E-2</v>
+      </c>
+      <c r="N106" s="39">
+        <v>552000000</v>
+      </c>
+      <c r="O106" s="39">
+        <v>712000000</v>
+      </c>
+      <c r="P106" s="39">
+        <v>952000000</v>
+      </c>
+      <c r="Q106" s="39">
+        <v>1132000000</v>
+      </c>
+      <c r="R106" s="39">
+        <v>1332000000</v>
+      </c>
+      <c r="S106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="T106" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="U106" s="69">
+        <f>(SUM(N4:R4)/5)</f>
+        <v>0.20569440159800245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-15385000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-8390000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-27788000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-24444000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-13164000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-2172000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>22267000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>51378000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>65127000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>30040000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>176863000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>191403000</v>
+      </c>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="40">
+        <f>R106*(1+U107)/(U108-U107)</f>
+        <v>16706302663.369017</v>
+      </c>
+      <c r="S107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="68"/>
-    </row>
-    <row r="105" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.45466363340916482</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>2.3120381406436232</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-0.1203397149848856</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.46146293568973984</v>
-      </c>
-      <c r="G105" s="15">
-        <f t="shared" ref="G105:M105" si="8">(G106/F106)-1</f>
-        <v>-0.83500455788514127</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" si="8"/>
-        <v>-11.25184162062615</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3073606682534691</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.26760481139787462</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.53874737052221044</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.8875832223701732</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.2210524530286211E-2</v>
-      </c>
-      <c r="N105" s="57">
-        <v>286200000</v>
-      </c>
-      <c r="O105" s="57">
-        <v>359500000</v>
-      </c>
-      <c r="P105" s="57">
-        <v>454700000</v>
-      </c>
-      <c r="Q105" s="57">
-        <v>553900000</v>
-      </c>
-      <c r="R105" s="57">
-        <v>778800000</v>
-      </c>
-      <c r="S105" s="15"/>
-      <c r="T105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="U105" s="26">
-        <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10569887530023341</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-15385000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-8390000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-27788000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-24444000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-13164000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-2172000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>22267000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>51378000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>65127000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>30040000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>176863000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>191403000</v>
-      </c>
-      <c r="N106" s="54">
-        <f>M106*(1+$U$106)</f>
-        <v>230811411.76838955</v>
-      </c>
-      <c r="O106" s="54">
-        <f t="shared" ref="O106:R106" si="9">N106*(1+$U$106)</f>
-        <v>278333713.69579929</v>
-      </c>
-      <c r="P106" s="54">
-        <f t="shared" si="9"/>
-        <v>335640493.62270278</v>
-      </c>
-      <c r="Q106" s="54">
-        <f t="shared" si="9"/>
-        <v>404746300.63110387</v>
-      </c>
-      <c r="R106" s="54">
-        <f t="shared" si="9"/>
-        <v>488080464.02981198</v>
-      </c>
-      <c r="S106" s="38" t="s">
+      <c r="T107" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="T106" s="39" t="s">
+      <c r="U107" s="71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="N108" s="40">
+        <f t="shared" ref="N108:Q108" si="12">N107+N106</f>
+        <v>552000000</v>
+      </c>
+      <c r="O108" s="40">
+        <f t="shared" si="12"/>
+        <v>712000000</v>
+      </c>
+      <c r="P108" s="40">
+        <f t="shared" si="12"/>
+        <v>952000000</v>
+      </c>
+      <c r="Q108" s="40">
+        <f t="shared" si="12"/>
+        <v>1132000000</v>
+      </c>
+      <c r="R108" s="40">
+        <f>R107+R106</f>
+        <v>18038302663.369019</v>
+      </c>
+      <c r="S108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="T108" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="U106" s="40">
-        <f>(SUM(N4:R4)/5)</f>
-        <v>0.20589234112521523</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
-      <c r="Q107" s="38"/>
-      <c r="R107" s="58">
-        <f>R105*(1+U107)/(U108-U107)</f>
-        <v>9891959423.5991936</v>
-      </c>
-      <c r="S107" s="42" t="s">
+      <c r="U108" s="69">
+        <f>U105</f>
+        <v>0.10672364810519193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="N109" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="T107" s="43" t="s">
+      <c r="O109" s="46"/>
+    </row>
+    <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+      <c r="N110" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="U107" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="41">
-        <f t="shared" ref="N108:P108" si="10">N107+N106</f>
-        <v>230811411.76838955</v>
-      </c>
-      <c r="O108" s="41">
-        <f t="shared" si="10"/>
-        <v>278333713.69579929</v>
-      </c>
-      <c r="P108" s="41">
-        <f t="shared" si="10"/>
-        <v>335640493.62270278</v>
-      </c>
-      <c r="Q108" s="41">
-        <f>Q107+Q106</f>
-        <v>404746300.63110387</v>
-      </c>
-      <c r="R108" s="58">
-        <f>R107+R105</f>
-        <v>10670759423.599194</v>
-      </c>
-      <c r="S108" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="T108" s="45" t="s">
+      <c r="O110" s="27">
+        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
+        <v>13401167997.927649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+      <c r="N111" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="U108" s="46">
-        <f>U105</f>
-        <v>0.10569887530023341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="O109" s="64"/>
-    </row>
-    <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="O110" s="36">
-        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>7412199879.645957</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="O111" s="36">
+      <c r="O111" s="27">
         <f>M40</f>
         <v>1412684000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="O112" s="36">
+      <c r="N112" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="O112" s="27">
         <f>U99</f>
         <v>806339000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="O113" s="36">
+      <c r="N113" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="O113" s="27">
         <f>O110+O111-O112</f>
-        <v>8018544879.6459579</v>
+        <v>14007512997.927649</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="O114" s="48">
+      <c r="N114" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O114" s="31">
         <f>M34*(1+(5*S16))</f>
         <v>61324791.93938946</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="O115" s="50">
+      <c r="N115" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O115" s="33">
         <f>O113/O114</f>
-        <v>130.75535401035052</v>
+        <v>228.41517361806976</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="O116" s="56" cm="1">
+      <c r="N116" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="O116" s="38" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
         <v>516.41</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="O117" s="52">
+      <c r="N117" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="O117" s="35">
         <f>O115/O116-1</f>
-        <v>-0.74679933771547702</v>
+        <v>-0.55768638558883488</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="O118" s="53" t="str">
+      <c r="N118" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="O118" s="36" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -7958,8 +8366,9 @@
     <hyperlink ref="M36" r:id="rId24" tooltip="https://www.sec.gov/Archives/edgar/data/1404655/000095017023003077/0000950170-23-003077-index.htm" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="M74" r:id="rId25" tooltip="https://www.sec.gov/Archives/edgar/data/1404655/000095017023003077/0000950170-23-003077-index.htm" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="N1" r:id="rId26" display="https://finbox.com/NYSE:HUBS/explorer/revenue_proj" xr:uid="{D524922D-5805-7146-9F7C-28CF542ADD20}"/>
+    <hyperlink ref="S106" r:id="rId27" xr:uid="{BABB9A61-79E2-1048-9B65-7FA532C959B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC33CBC-7F1E-B548-99F0-A569532E8692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551973EA-B03F-544C-A454-FB5FD7ED11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1747,6 +1747,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
@@ -1765,7 +1766,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1777,6 +1778,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1903,37 +1905,37 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>581.4</v>
-    <v>257.5</v>
-    <v>1.6012999999999999</v>
-    <v>-27.26</v>
-    <v>-6.1652999999999999E-2</v>
-    <v>0.76</v>
-    <v>1.8310000000000002E-3</v>
+    <v>265.74009999999998</v>
+    <v>1.6134999999999999</v>
+    <v>23.14</v>
+    <v>4.6849000000000002E-2</v>
+    <v>-16.97</v>
+    <v>-3.2826000000000001E-2</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
-    <v>7136</v>
+    <v>7478</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>465</v>
+    <v>517.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.933352187501</v>
+    <v>45261.970916527345</v>
     <v>0</v>
-    <v>413.07</v>
-    <v>20750860263</v>
+    <v>492.2</v>
+    <v>26024412317</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>465</v>
-    <v>442.15</v>
-    <v>414.89</v>
-    <v>415.88</v>
-    <v>50015330</v>
+    <v>494.45</v>
+    <v>493.93</v>
+    <v>517.07000000000005</v>
+    <v>500</v>
+    <v>50330540</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>2009355</v>
-    <v>763645</v>
+    <v>863263</v>
+    <v>725659</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -13447,7 +13449,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>20750860263</v>
+        <v>26024412317</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>200</v>
@@ -13475,7 +13477,7 @@
       </c>
       <c r="I3" s="41">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11969913175.405159</v>
+        <v>11620275792.0147</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>204</v>
@@ -13518,21 +13520,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>62211899.105810933</v>
+        <v>62603975.14963875</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="51">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>9524415758.849329</v>
+        <v>9219597057.5031166</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.1652999999999999E-2</v>
+        <v>4.6849000000000002E-2</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>212</v>
@@ -13547,7 +13549,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>50015330</v>
+        <v>50330540</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>214</v>
@@ -13575,14 +13577,14 @@
       </c>
       <c r="I5" s="51">
         <f>I4+G5-G6</f>
-        <v>10253576758.849329</v>
+        <v>9948758057.5031166</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>414.89</v>
+        <v>517.07000000000005</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>219</v>
@@ -13600,7 +13602,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>9.7881416334905662</v>
+        <v>12.27566618726415</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -13628,14 +13630,14 @@
       </c>
       <c r="I6" s="52">
         <f>N25</f>
-        <v>9.1364307606860456E-2</v>
+        <v>9.3361114160980932E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>164.8169708082676</v>
+        <v>158.91575628741086</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>225</v>
@@ -13653,14 +13655,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>75.457673683636358</v>
+        <v>94.634226607272723</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="64">
         <f>F15/A3</f>
-        <v>1.4457231950760017E-2</v>
+        <v>1.1527637832729469E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>228</v>
@@ -13687,7 +13689,7 @@
       </c>
       <c r="K7" s="70">
         <f>K6/K5-1</f>
-        <v>-0.60274537634489245</v>
+        <v>-0.69266103953543845</v>
       </c>
       <c r="L7" s="71" t="s">
         <v>231</v>
@@ -14000,7 +14002,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -14146,7 +14148,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6635700000000019E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -14223,7 +14225,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>20750860263</v>
+        <v>26024412317</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -14251,7 +14253,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>21550844263</v>
+        <v>26824396317</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -14277,7 +14279,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>3.7120773099987951E-2</v>
+        <v>2.9823001067614298E-2</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -14300,7 +14302,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.96287922690001204</v>
+        <v>0.97017699893238574</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -14340,7 +14342,7 @@
       <c r="M25" s="73"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.1364307606860456E-2</v>
+        <v>9.3361114160980932E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="45"/>

--- a/Technology/Software/Hubspot.xlsx
+++ b/Technology/Software/Hubspot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551973EA-B03F-544C-A454-FB5FD7ED11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195D545-BA09-0842-867F-7317C53D7E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,8 +1747,10 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
-      <sheetName val="Small Caps"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1766,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1779,6 +1781,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1905,12 +1909,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>581.4</v>
-    <v>265.74009999999998</v>
-    <v>1.6134999999999999</v>
-    <v>23.14</v>
-    <v>4.6849000000000002E-2</v>
-    <v>-16.97</v>
-    <v>-3.2826000000000001E-2</v>
+    <v>267.99</v>
+    <v>1.6374</v>
+    <v>10</v>
+    <v>2.0323999999999998E-2</v>
+    <v>-0.11</v>
+    <v>-2.1909999999999999E-4</v>
     <v>USD</v>
     <v>HubSpot, Inc. provides a cloud-based customer relationship management (CRM) platform. The Company’s CRM platform is comprised of a marketing hub, sales hub, service hub, content management system (CMS) Hub, and operations hub as well as other tools, integrations, and a payment solution that enables companies to attract, engage, and delight customers throughout the customer experience. Its CRM platform features integrated applications that create a cohesive and adaptable customer experience. These integrated applications include blogging, Website content management, messaging, chatbots, social media, marketing automation, email, predictive lead scoring, sales productivity, ticketing and helpdesk tools, analytics, and reporting. The Company also provides professional services, which consist of customer on-boarding, training, and consulting services. It focuses on selling its CRM platform to mid-market business-to-business (B2B) companies on a subscription basis.</v>
     <v>7478</v>
@@ -1918,24 +1922,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>25 First Street, CAMBRIDGE, MA, 02141 US</v>
-    <v>517.46</v>
+    <v>506.7</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.970916527345</v>
+    <v>45269.000000022657</v>
     <v>0</v>
-    <v>492.2</v>
-    <v>26024412317</v>
+    <v>485.78</v>
+    <v>25267944301</v>
     <v>HUBSPOT, INC.</v>
     <v>HUBSPOT, INC.</v>
-    <v>494.45</v>
-    <v>493.93</v>
-    <v>517.07000000000005</v>
-    <v>500</v>
+    <v>488.46</v>
+    <v>492.04</v>
+    <v>502.04</v>
+    <v>501.93</v>
     <v>50330540</v>
     <v>HUBS</v>
     <v>HUBSPOT, INC. (XNYS:HUBS)</v>
-    <v>863263</v>
-    <v>725659</v>
+    <v>392337</v>
+    <v>706287</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2097,9 +2101,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -13449,7 +13453,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>26024412317</v>
+        <v>25267944301</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>200</v>
@@ -13477,7 +13481,7 @@
       </c>
       <c r="I3" s="41">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11620275792.0147</v>
+        <v>11560065884.742521</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>204</v>
@@ -13527,14 +13531,14 @@
       </c>
       <c r="I4" s="51">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>9219597057.5031166</v>
+        <v>9167127924.8852901</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.6849000000000002E-2</v>
+        <v>2.0323999999999998E-2</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>212</v>
@@ -13577,14 +13581,14 @@
       </c>
       <c r="I5" s="51">
         <f>I4+G5-G6</f>
-        <v>9948758057.5031166</v>
+        <v>9896288924.8852901</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>517.07000000000005</v>
+        <v>502.04</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>219</v>
@@ -13602,7 +13606,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>12.27566618726415</v>
+        <v>11.918841651415095</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -13630,14 +13634,14 @@
       </c>
       <c r="I6" s="52">
         <f>N25</f>
-        <v>9.3361114160980932E-2</v>
+        <v>9.3717168908911727E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="60">
         <f>I5/G4</f>
-        <v>158.91575628741086</v>
+        <v>158.07764445038433</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>225</v>
@@ -13655,14 +13659,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>94.634226607272723</v>
+        <v>91.883433821818187</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="64">
         <f>F15/A3</f>
-        <v>1.1527637832729469E-2</v>
+        <v>1.1872750565946406E-2</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>228</v>
@@ -13689,7 +13693,7 @@
       </c>
       <c r="K7" s="70">
         <f>K6/K5-1</f>
-        <v>-0.69266103953543845</v>
+        <v>-0.68512938321571126</v>
       </c>
       <c r="L7" s="71" t="s">
         <v>231</v>
@@ -14002,7 +14006,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
     </row>
@@ -14148,7 +14152,7 @@
       </c>
       <c r="O17" s="98">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="45"/>
     </row>
@@ -14225,7 +14229,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>26024412317</v>
+        <v>25267944301</v>
       </c>
       <c r="P20" s="45"/>
     </row>
@@ -14253,7 +14257,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>26824396317</v>
+        <v>26067928301</v>
       </c>
       <c r="P21" s="45"/>
     </row>
@@ -14279,7 +14283,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.9823001067614298E-2</v>
+        <v>3.0688437944234776E-2</v>
       </c>
       <c r="P22" s="45"/>
     </row>
@@ -14302,7 +14306,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.97017699893238574</v>
+        <v>0.96931156205576519</v>
       </c>
       <c r="P23" s="45"/>
     </row>
@@ -14342,7 +14346,7 @@
       <c r="M25" s="73"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.3361114160980932E-2</v>
+        <v>9.3717168908911727E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="45"/>
